--- a/data/trans_orig/P36BPD04_R_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>553074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>529943</v>
+        <v>529526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>576215</v>
+        <v>574333</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8019882400048455</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7684477404980726</v>
+        <v>0.767843544153375</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8355447201281063</v>
+        <v>0.8328154423007416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1043</v>
@@ -762,19 +762,19 @@
         <v>602920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>584496</v>
+        <v>584318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>620179</v>
+        <v>620332</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8245351653759736</v>
+        <v>0.8245351653759738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7993396865242062</v>
+        <v>0.7990955624701873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8481386868023403</v>
+        <v>0.8483468829705929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1637</v>
@@ -783,19 +783,19 @@
         <v>1155993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1124580</v>
+        <v>1124887</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1181917</v>
+        <v>1184471</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8135917367018365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7914836922011624</v>
+        <v>0.7916996670899888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8318375542699602</v>
+        <v>0.8336352156262027</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>136554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113413</v>
+        <v>115295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159685</v>
+        <v>160102</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1980117599951544</v>
+        <v>0.1980117599951545</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1644552798718937</v>
+        <v>0.1671845576992584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2315522595019276</v>
+        <v>0.2321564558466251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -833,19 +833,19 @@
         <v>128304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111045</v>
+        <v>110892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146728</v>
+        <v>146906</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1754648346240264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1518613131976597</v>
+        <v>0.151653117029407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2006603134757937</v>
+        <v>0.2009044375298128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>327</v>
@@ -854,19 +854,19 @@
         <v>264858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238934</v>
+        <v>236380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>296271</v>
+        <v>295964</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1864082632981635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1681624457300399</v>
+        <v>0.1663647843737972</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2085163077988378</v>
+        <v>0.2083003329100111</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>840933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>809457</v>
+        <v>809986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>867981</v>
+        <v>868950</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.801715689999121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7717074333549616</v>
+        <v>0.7722120884127704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8275021661554214</v>
+        <v>0.8284259559394135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1289</v>
@@ -979,19 +979,19 @@
         <v>898420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>875389</v>
+        <v>873645</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>920095</v>
+        <v>919327</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8394137642791135</v>
+        <v>0.8394137642791136</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8178961915642475</v>
+        <v>0.8162666156245173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8596659705975993</v>
+        <v>0.8589482911188694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2063</v>
@@ -1000,19 +1000,19 @@
         <v>1739353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1702296</v>
+        <v>1701123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1772081</v>
+        <v>1774148</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8207548622456322</v>
+        <v>0.820754862245632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8032687795590568</v>
+        <v>0.8027151637896525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8361984744683562</v>
+        <v>0.83717377537122</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>207984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>180936</v>
+        <v>179967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239460</v>
+        <v>238931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1982843100008791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1724978338445781</v>
+        <v>0.171574044060587</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2282925666450384</v>
+        <v>0.2277879115872297</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>226</v>
@@ -1050,19 +1050,19 @@
         <v>171874</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150199</v>
+        <v>150967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>194905</v>
+        <v>196649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1605862357208865</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1403340294024007</v>
+        <v>0.1410517088811307</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1821038084357526</v>
+        <v>0.1837333843754828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>416</v>
@@ -1071,19 +1071,19 @@
         <v>379858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>347130</v>
+        <v>345063</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>416915</v>
+        <v>418088</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.179245137754368</v>
+        <v>0.1792451377543679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1638015255316438</v>
+        <v>0.1628262246287801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1967312204409437</v>
+        <v>0.1972848362103475</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>580705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>549200</v>
+        <v>546922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>607827</v>
+        <v>607533</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7231041022990844</v>
+        <v>0.7231041022990843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6838736548503986</v>
+        <v>0.6810360335614002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7568761646732288</v>
+        <v>0.756510403223262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>792</v>
@@ -1196,19 +1196,19 @@
         <v>603773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>580033</v>
+        <v>580536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>628527</v>
+        <v>626885</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7433259105532152</v>
+        <v>0.7433259105532153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7140984650836697</v>
+        <v>0.7147180963462311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7738009140902705</v>
+        <v>0.7717799620675195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1295</v>
@@ -1217,19 +1217,19 @@
         <v>1184479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1141074</v>
+        <v>1141000</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1222464</v>
+        <v>1217807</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7332725027630974</v>
+        <v>0.7332725027630972</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7064021357214163</v>
+        <v>0.7063562215286502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.75678820471193</v>
+        <v>0.753905048967131</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>222368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>195246</v>
+        <v>195540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>253873</v>
+        <v>256151</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2768958977009157</v>
+        <v>0.2768958977009156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.243123835326771</v>
+        <v>0.243489596776738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3161263451496008</v>
+        <v>0.3189639664385995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>255</v>
@@ -1267,19 +1267,19 @@
         <v>208486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183732</v>
+        <v>185374</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>232226</v>
+        <v>231723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2566740894467847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2261990859097296</v>
+        <v>0.2282200379324808</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2859015349163304</v>
+        <v>0.2852819036537691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>428</v>
@@ -1288,19 +1288,19 @@
         <v>430853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392868</v>
+        <v>397525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>474258</v>
+        <v>474332</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2667274972369027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2432117952880701</v>
+        <v>0.2460949510328691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.293597864278583</v>
+        <v>0.2936437784713497</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>707963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>677446</v>
+        <v>672906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>737224</v>
+        <v>737615</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7158773776087812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6850193777196907</v>
+        <v>0.6804283903241797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7454658264035815</v>
+        <v>0.7458608775902449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1199</v>
@@ -1413,19 +1413,19 @@
         <v>851683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>822355</v>
+        <v>824314</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>875865</v>
+        <v>877079</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7618586409994779</v>
+        <v>0.7618586409994778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7356245058020103</v>
+        <v>0.7373767427726484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7834904710589936</v>
+        <v>0.7845764044625594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1943</v>
@@ -1434,19 +1434,19 @@
         <v>1559646</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1515797</v>
+        <v>1512839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1599312</v>
+        <v>1598041</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7402752304466967</v>
+        <v>0.7402752304466969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7194625110399743</v>
+        <v>0.7180586038748786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7591026636097704</v>
+        <v>0.7584990085822909</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>280981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251720</v>
+        <v>251329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>311498</v>
+        <v>316038</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2841226223912187</v>
+        <v>0.2841226223912188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2545341735964186</v>
+        <v>0.2541391224097551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3149806222803092</v>
+        <v>0.3195716096758203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1484,19 +1484,19 @@
         <v>266218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>242036</v>
+        <v>240822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>295546</v>
+        <v>293587</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2381413590005222</v>
+        <v>0.2381413590005223</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2165095289410065</v>
+        <v>0.2154235955374407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2643754941979898</v>
+        <v>0.2626232572273516</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>622</v>
@@ -1505,19 +1505,19 @@
         <v>547200</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>507534</v>
+        <v>508805</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>591049</v>
+        <v>594007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2597247695533033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2408973363902298</v>
+        <v>0.2415009914177091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2805374889600259</v>
+        <v>0.2819413961251211</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2682675</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2627174</v>
+        <v>2626347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2739102</v>
+        <v>2741084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.759843548727047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7441234551250635</v>
+        <v>0.7438892186784272</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7758259766649906</v>
+        <v>0.776387560975671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4323</v>
@@ -1630,19 +1630,19 @@
         <v>2956795</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2907958</v>
+        <v>2907273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3001678</v>
+        <v>3000549</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7923500154718549</v>
+        <v>0.7923500154718548</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7792628773010393</v>
+        <v>0.7790793578075638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8043776058370031</v>
+        <v>0.8040748818248217</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6938</v>
@@ -1651,19 +1651,19 @@
         <v>5639470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5563842</v>
+        <v>5562373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5713424</v>
+        <v>5714151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.776546887677106</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7661331051691534</v>
+        <v>0.7659307950908738</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7867302575493307</v>
+        <v>0.7868303033387067</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>847887</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>791460</v>
+        <v>789478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>903388</v>
+        <v>904215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2401564512729529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2241740233350093</v>
+        <v>0.2236124390243292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2558765448749365</v>
+        <v>0.2561107813215732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1034</v>
@@ -1701,19 +1701,19 @@
         <v>774883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>730000</v>
+        <v>731129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>823720</v>
+        <v>824405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2076499845281451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1956223941629968</v>
+        <v>0.1959251181751782</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2207371226989607</v>
+        <v>0.2209206421924363</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1793</v>
@@ -1722,19 +1722,19 @@
         <v>1622770</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1548816</v>
+        <v>1548089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1698398</v>
+        <v>1699867</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.223453112322894</v>
+        <v>0.2234531123228939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2132697424506691</v>
+        <v>0.2131696966612933</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2338668948308466</v>
+        <v>0.2340692049091261</v>
       </c>
     </row>
     <row r="18">
